--- a/QuanLyNhanSu-Master/bin/Release/Template/Temp.xlsx
+++ b/QuanLyNhanSu-Master/bin/Release/Template/Temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual Studio 2013\Visual Studio 2013\Project\QLNS\QUANLYNHANSU\dev\QuanLyNhanSu-Master\bin\Release\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Visual Studio 2013\Visual Studio 2013\Project\QLNS\QUANLYNHANSU\dev\QuanLyNhanSu-Master\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
-    <customWorkbookView name="Hoang Tu - Dạng xem cá nhân" guid="{8F574306-E751-48D2-953F-593A81803148}" mergeInterval="0" personalView="1" xWindow="160" yWindow="160" windowWidth="1440" windowHeight="756" activeSheetId="1"/>
+    <customWorkbookView name="Hoang Tu - Dạng xem cá nhân" guid="{347C3001-F952-47AB-9BC1-2F06D4332428}" mergeInterval="0" personalView="1" xWindow="64" yWindow="64" windowWidth="1440" windowHeight="756" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Ngân hàng thương mại cổ phần Á Châu</t>
   </si>
@@ -125,214 +125,40 @@
     <t>Giám đốc</t>
   </si>
   <si>
-    <t>23,5</t>
+    <t>26,5</t>
+  </si>
+  <si>
+    <t>Lê Văn Luyệnss</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Dương Văn Thanh</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Hoa</t>
   </si>
   <si>
     <t>Lê Văn Luyện</t>
   </si>
   <si>
-    <t>Nhân viên</t>
+    <t>21,5</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>24,5</t>
   </si>
   <si>
     <t>22,5</t>
   </si>
   <si>
-    <t>Lê Ngọc Hương</t>
+    <t>25,5</t>
   </si>
   <si>
-    <t>Đoàn Thị Hoa</t>
-  </si>
-  <si>
-    <t>Lê Văn Thành</t>
-  </si>
-  <si>
-    <t>20,5</t>
-  </si>
-  <si>
-    <t>Đoàn Công Toàn</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Công</t>
-  </si>
-  <si>
-    <t>21,5</t>
-  </si>
-  <si>
-    <t>Đoàn Thanh Lam</t>
-  </si>
-  <si>
-    <t>Đoàn Công Thắng</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Vui</t>
-  </si>
-  <si>
-    <t>24,5</t>
-  </si>
-  <si>
-    <t>Đoàn Ngọc Bằng</t>
-  </si>
-  <si>
-    <t>Nguyễn Công Thắng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thái Yến</t>
-  </si>
-  <si>
-    <t>Thực tập sinh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thái An</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hương</t>
-  </si>
-  <si>
-    <t>Nguyễn Bảo Ngọc</t>
-  </si>
-  <si>
-    <t>Nguyễn Linh Lan</t>
-  </si>
-  <si>
-    <t>Nguyễn Diệp Chi</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Mai</t>
-  </si>
-  <si>
-    <t>Nguyễn Mai Thảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Mai Anh</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá Hoàng</t>
-  </si>
-  <si>
-    <t>Lê Minh Ngọc</t>
-  </si>
-  <si>
-    <t>Phương Văn Kha</t>
-  </si>
-  <si>
-    <t>Đặng Trúc Lâm</t>
-  </si>
-  <si>
-    <t>Lê Đan Tú</t>
-  </si>
-  <si>
-    <t>Phạm Hoàng Anh</t>
-  </si>
-  <si>
-    <t>Đặng Trúc Linh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Danh</t>
-  </si>
-  <si>
-    <t>Lê Bảo Ngọc</t>
-  </si>
-  <si>
-    <t>Đặng Huy Hoàng</t>
-  </si>
-  <si>
-    <t>Đặng Gia Phát</t>
-  </si>
-  <si>
-    <t>Lê Anh Thư</t>
-  </si>
-  <si>
-    <t>Đặng Minh Khang</t>
-  </si>
-  <si>
-    <t>Đăng Văn Khôi</t>
-  </si>
-  <si>
-    <t>Lê Uyển Nhi</t>
-  </si>
-  <si>
-    <t>Lê Nguyễn Hoàng An</t>
-  </si>
-  <si>
-    <t>Lê Ngọc Đan Tâm</t>
-  </si>
-  <si>
-    <t>Lê Tú Linh</t>
-  </si>
-  <si>
-    <t>Lê Ngọc Lan Chi</t>
-  </si>
-  <si>
-    <t>Lê thị Ngọc Loan</t>
-  </si>
-  <si>
-    <t>Lê Đức Minh</t>
-  </si>
-  <si>
-    <t>Lê Ngọc Dương</t>
-  </si>
-  <si>
-    <t>Phạm Tuấn Thành</t>
-  </si>
-  <si>
-    <t>Trưởng phòng</t>
-  </si>
-  <si>
-    <t>Trần Thị Liên</t>
-  </si>
-  <si>
-    <t>Lê Hoàng Lan</t>
-  </si>
-  <si>
-    <t>Phạm Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Đỗ Quỳnh Chi</t>
-  </si>
-  <si>
-    <t>Đỗ Nhật Hạ</t>
-  </si>
-  <si>
-    <t>Phạm Phương Khánh</t>
-  </si>
-  <si>
-    <t>Đỗ Thái Dương</t>
-  </si>
-  <si>
-    <t>Phạm Thị Liên</t>
-  </si>
-  <si>
-    <t>Phạm Thành Bưởi</t>
-  </si>
-  <si>
-    <t>Phạm Than Văn</t>
-  </si>
-  <si>
-    <t>Nguyễn Mỹ Hiếu</t>
-  </si>
-  <si>
-    <t>Phạm Thanh Toan</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Công</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng Thiên Bá </t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thanh</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Thanh Thảo</t>
-  </si>
-  <si>
-    <t>Nguyễn Thành Hói</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Tâm</t>
-  </si>
-  <si>
-    <t>Đặng Trung Kiên</t>
+    <t>Nguyễn Thái</t>
   </si>
   <si>
     <t>TỔNG</t>
@@ -638,7 +464,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -670,9 +508,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -682,18 +517,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -714,8 +544,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BFB1ABA3-3ACC-4D4D-8DFB-438B158E611E}">
-  <header guid="{BFB1ABA3-3ACC-4D4D-8DFB-438B158E611E}" dateTime="2020-12-25T20:20:57" maxSheetId="2" userName="Hoang Tu" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F42F586B-1166-4E77-8D92-5D33BF0083EE}">
+  <header guid="{F42F586B-1166-4E77-8D92-5D33BF0083EE}" dateTime="2020-12-17T11:13:52" maxSheetId="2" userName="Hoang Tu" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1015,17 +845,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1033,33 +863,33 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="19"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="25"/>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1091,67 +921,67 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:27" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="20" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="22" t="s">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="20" t="s">
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:27" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
@@ -1167,10 +997,10 @@
       <c r="J8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="11" t="s">
         <v>21</v>
       </c>
@@ -1198,5463 +1028,2539 @@
       <c r="W8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="16"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="22"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="33">
         <v>0</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="35">
         <v>2005001</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="36">
         <v>7000000</v>
       </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31">
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36">
         <f>SUM(E9:J9)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L9" s="31" t="s">
+        <v>7000000</v>
+      </c>
+      <c r="L9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="36">
         <f xml:space="preserve"> K9 / 24 * L9</f>
-        <v>7833333.333333333</v>
-      </c>
-      <c r="N9" s="31">
+        <v>7729166.666666667</v>
+      </c>
+      <c r="N9" s="36">
         <f>SUM(E9:F9)</f>
         <v>7000000</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="36">
         <f>N9 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="36">
         <f>N9 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="36">
         <f>N9 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="36">
         <f>N9 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="36">
         <f>SUM(O9:R9)</f>
         <v>1393000</v>
       </c>
-      <c r="T9" s="31">
+      <c r="T9" s="36">
         <f>N9 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U9" s="31">
+      <c r="U9" s="36">
         <f>N9 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="36">
         <f>N9 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W9" s="31">
+      <c r="W9" s="36">
         <f>SUM(T9:V9)</f>
         <v>735000</v>
       </c>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="31">
+      <c r="X9" s="37"/>
+      <c r="Y9" s="36">
         <f>M9-W9-X9</f>
-        <v>7098333.333333333</v>
+        <v>6994166.666666667</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="33">
         <v>1</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="35">
         <v>2005002</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="36">
         <v>7000000</v>
       </c>
-      <c r="F10" s="31">
-        <v>0</v>
-      </c>
-      <c r="G10" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36">
         <f>SUM(E10:J10)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M10" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L10" s="36">
+        <v>25</v>
+      </c>
+      <c r="M10" s="36">
         <f xml:space="preserve"> K10 / 24 * L10</f>
-        <v>7500000</v>
-      </c>
-      <c r="N10" s="31">
+        <v>7291666.666666667</v>
+      </c>
+      <c r="N10" s="36">
         <f>SUM(E10:F10)</f>
         <v>7000000</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="36">
         <f>N10 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="36">
         <f>N10 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="36">
         <f>N10 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="36">
         <f>N10 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="36">
         <f>SUM(O10:R10)</f>
         <v>1393000</v>
       </c>
-      <c r="T10" s="31">
+      <c r="T10" s="36">
         <f>N10 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U10" s="31">
+      <c r="U10" s="36">
         <f>N10 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="36">
         <f>N10 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W10" s="31">
+      <c r="W10" s="36">
         <f>SUM(T10:V10)</f>
         <v>735000</v>
       </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31">
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36">
         <f>M10-W10-X10</f>
-        <v>6765000</v>
+        <v>6556666.666666667</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="33">
         <v>2</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="35">
         <v>2005003</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="36">
         <v>7000000</v>
       </c>
-      <c r="F11" s="31">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31">
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36">
         <f>SUM(E11:J11)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L11" s="31">
-        <v>24</v>
-      </c>
-      <c r="M11" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L11" s="36">
+        <v>25</v>
+      </c>
+      <c r="M11" s="36">
         <f xml:space="preserve"> K11 / 24 * L11</f>
-        <v>8000000</v>
-      </c>
-      <c r="N11" s="31">
+        <v>7291666.666666667</v>
+      </c>
+      <c r="N11" s="36">
         <f>SUM(E11:F11)</f>
         <v>7000000</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="36">
         <f>N11 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="36">
         <f>N11 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="36">
         <f>N11 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="36">
         <f>N11 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="36">
         <f>SUM(O11:R11)</f>
         <v>1393000</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T11" s="36">
         <f>N11 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U11" s="31">
+      <c r="U11" s="36">
         <f>N11 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="36">
         <f>N11 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="36">
         <f>SUM(T11:V11)</f>
         <v>735000</v>
       </c>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31">
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36">
         <f>M11-W11-X11</f>
-        <v>7265000</v>
+        <v>6556666.666666667</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="33">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="B12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="35">
         <v>2005004</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="36">
         <v>7000000</v>
       </c>
-      <c r="F12" s="31">
-        <v>0</v>
-      </c>
-      <c r="G12" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36">
         <f>SUM(E12:J12)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L12" s="31">
-        <v>22</v>
-      </c>
-      <c r="M12" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L12" s="36">
+        <v>24</v>
+      </c>
+      <c r="M12" s="36">
         <f xml:space="preserve"> K12 / 24 * L12</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N12" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="N12" s="36">
         <f>SUM(E12:F12)</f>
         <v>7000000</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="36">
         <f>N12 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="36">
         <f>N12 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="36">
         <f>N12 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="36">
         <f>N12 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="36">
         <f>SUM(O12:R12)</f>
         <v>1393000</v>
       </c>
-      <c r="T12" s="31">
+      <c r="T12" s="36">
         <f>N12 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U12" s="31">
+      <c r="U12" s="36">
         <f>N12 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="36">
         <f>N12 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="36">
         <f>SUM(T12:V12)</f>
         <v>735000</v>
       </c>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31">
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36">
         <f>M12-W12-X12</f>
-        <v>6598333.333333333</v>
+        <v>6265000</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="33">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2005005</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="36">
+        <v>7000000</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36">
+        <f>SUM(E13:J13)</f>
+        <v>7000000</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="30">
-        <v>2005005</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F13" s="31">
-        <v>0</v>
-      </c>
-      <c r="G13" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31">
-        <f>SUM(E13:J13)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="31">
+      <c r="M13" s="36">
         <f xml:space="preserve"> K13 / 24 * L13</f>
-        <v>6833333.333333333</v>
-      </c>
-      <c r="N13" s="31">
+        <v>6270833.333333334</v>
+      </c>
+      <c r="N13" s="36">
         <f>SUM(E13:F13)</f>
         <v>7000000</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="36">
         <f>N13 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="36">
         <f>N13 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="36">
         <f>N13 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="36">
         <f>N13 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="36">
         <f>SUM(O13:R13)</f>
         <v>1393000</v>
       </c>
-      <c r="T13" s="31">
+      <c r="T13" s="36">
         <f>N13 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U13" s="31">
+      <c r="U13" s="36">
         <f>N13 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V13" s="31">
+      <c r="V13" s="36">
         <f>N13 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="36">
         <f>SUM(T13:V13)</f>
         <v>735000</v>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31">
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36">
         <f>M13-W13-X13</f>
-        <v>6098333.333333333</v>
+        <v>5535833.333333334</v>
       </c>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="33">
         <v>5</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2005007</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="36">
+        <v>7000000</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36">
+        <f>SUM(E14:J14)</f>
+        <v>7000000</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="30">
-        <v>2005007</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F14" s="31">
-        <v>0</v>
-      </c>
-      <c r="G14" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31">
-        <f>SUM(E14:J14)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="31">
+      <c r="M14" s="36">
         <f xml:space="preserve"> K14 / 24 * L14</f>
-        <v>7833333.333333333</v>
-      </c>
-      <c r="N14" s="31">
+        <v>7145833.333333334</v>
+      </c>
+      <c r="N14" s="36">
         <f>SUM(E14:F14)</f>
         <v>7000000</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="36">
         <f>N14 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="36">
         <f>N14 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="36">
         <f>N14 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="36">
         <f>N14 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="36">
         <f>SUM(O14:R14)</f>
         <v>1393000</v>
       </c>
-      <c r="T14" s="31">
+      <c r="T14" s="36">
         <f>N14 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U14" s="31">
+      <c r="U14" s="36">
         <f>N14 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V14" s="31">
+      <c r="V14" s="36">
         <f>N14 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W14" s="31">
+      <c r="W14" s="36">
         <f>SUM(T14:V14)</f>
         <v>735000</v>
       </c>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31">
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36">
         <f>M14-W14-X14</f>
-        <v>7098333.333333333</v>
+        <v>6410833.333333334</v>
       </c>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="33">
         <v>6</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="35">
+        <v>2005008</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="36">
+        <v>7000000</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36">
+        <f>SUM(E15:J15)</f>
+        <v>7000000</v>
+      </c>
+      <c r="L15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="30">
-        <v>2005008</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31">
-        <f>SUM(E15:J15)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="31">
+      <c r="M15" s="36">
         <f xml:space="preserve"> K15 / 24 * L15</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N15" s="31">
+        <v>6562500</v>
+      </c>
+      <c r="N15" s="36">
         <f>SUM(E15:F15)</f>
         <v>7000000</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="36">
         <f>N15 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="36">
         <f>N15 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="36">
         <f>N15 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="36">
         <f>N15 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="36">
         <f>SUM(O15:R15)</f>
         <v>1393000</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="36">
         <f>N15 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U15" s="31">
+      <c r="U15" s="36">
         <f>N15 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V15" s="31">
+      <c r="V15" s="36">
         <f>N15 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W15" s="31">
+      <c r="W15" s="36">
         <f>SUM(T15:V15)</f>
         <v>735000</v>
       </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31">
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36">
         <f>M15-W15-X15</f>
-        <v>6431666.666666666</v>
+        <v>5827500</v>
       </c>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="33">
         <v>7</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="35">
         <v>2005009</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="36">
         <v>7000000</v>
       </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-      <c r="G16" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31">
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36">
         <f>SUM(E16:J16)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L16" s="31">
-        <v>23</v>
-      </c>
-      <c r="M16" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L16" s="36">
+        <v>24</v>
+      </c>
+      <c r="M16" s="36">
         <f xml:space="preserve"> K16 / 24 * L16</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N16" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="N16" s="36">
         <f>SUM(E16:F16)</f>
         <v>7000000</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="36">
         <f>N16 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="36">
         <f>N16 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="36">
         <f>N16 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="36">
         <f>N16 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="36">
         <f>SUM(O16:R16)</f>
         <v>1393000</v>
       </c>
-      <c r="T16" s="31">
+      <c r="T16" s="36">
         <f>N16 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U16" s="31">
+      <c r="U16" s="36">
         <f>N16 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V16" s="31">
+      <c r="V16" s="36">
         <f>N16 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16" s="36">
         <f>SUM(T16:V16)</f>
         <v>735000</v>
       </c>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31">
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36">
         <f>M16-W16-X16</f>
-        <v>6931666.666666666</v>
+        <v>6265000</v>
       </c>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="33">
         <v>8</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="30">
+      <c r="B17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="35">
         <v>2005010</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="36">
         <v>7000000</v>
       </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36">
         <f>SUM(E17:J17)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M17" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="36">
         <f xml:space="preserve"> K17 / 24 * L17</f>
-        <v>7500000</v>
-      </c>
-      <c r="N17" s="31">
+        <v>7437500.0000000009</v>
+      </c>
+      <c r="N17" s="36">
         <f>SUM(E17:F17)</f>
         <v>7000000</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="36">
         <f>N17 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="36">
         <f>N17 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="36">
         <f>N17 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="36">
         <f>N17 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="36">
         <f>SUM(O17:R17)</f>
         <v>1393000</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="36">
         <f>N17 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="36">
         <f>N17 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V17" s="31">
+      <c r="V17" s="36">
         <f>N17 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W17" s="31">
+      <c r="W17" s="36">
         <f>SUM(T17:V17)</f>
         <v>735000</v>
       </c>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31">
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36">
         <f>M17-W17-X17</f>
-        <v>6765000</v>
+        <v>6702500.0000000009</v>
       </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+      <c r="A18" s="33">
         <v>9</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="B18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="35">
         <v>2005011</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="36">
         <v>7000000</v>
       </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-      <c r="G18" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31">
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36">
         <f>SUM(E18:J18)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="36">
         <f xml:space="preserve"> K18 / 24 * L18</f>
-        <v>8166666.666666666</v>
-      </c>
-      <c r="N18" s="31">
+        <v>7145833.333333334</v>
+      </c>
+      <c r="N18" s="36">
         <f>SUM(E18:F18)</f>
         <v>7000000</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="36">
         <f>N18 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="36">
         <f>N18 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="36">
         <f>N18 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R18" s="31">
+      <c r="R18" s="36">
         <f>N18 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S18" s="31">
+      <c r="S18" s="36">
         <f>SUM(O18:R18)</f>
         <v>1393000</v>
       </c>
-      <c r="T18" s="31">
+      <c r="T18" s="36">
         <f>N18 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U18" s="31">
+      <c r="U18" s="36">
         <f>N18 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V18" s="31">
+      <c r="V18" s="36">
         <f>N18 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="36">
         <f>SUM(T18:V18)</f>
         <v>735000</v>
       </c>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36">
         <f>M18-W18-X18</f>
-        <v>7431666.666666666</v>
+        <v>6410833.333333334</v>
       </c>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="A19" s="33">
         <v>10</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="B19" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="35">
         <v>2005012</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="36">
         <v>7000000</v>
       </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31">
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36">
         <f>SUM(E19:J19)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L19" s="31">
-        <v>23</v>
-      </c>
-      <c r="M19" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="36">
         <f xml:space="preserve"> K19 / 24 * L19</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N19" s="31">
+        <v>7437500.0000000009</v>
+      </c>
+      <c r="N19" s="36">
         <f>SUM(E19:F19)</f>
         <v>7000000</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="36">
         <f>N19 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="36">
         <f>N19 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="36">
         <f>N19 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="36">
         <f>N19 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S19" s="31">
+      <c r="S19" s="36">
         <f>SUM(O19:R19)</f>
         <v>1393000</v>
       </c>
-      <c r="T19" s="31">
+      <c r="T19" s="36">
         <f>N19 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="36">
         <f>N19 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="36">
         <f>N19 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W19" s="31">
+      <c r="W19" s="36">
         <f>SUM(T19:V19)</f>
         <v>735000</v>
       </c>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31">
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36">
         <f>M19-W19-X19</f>
-        <v>6931666.666666666</v>
+        <v>6702500.0000000009</v>
       </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="28">
+      <c r="A20" s="33">
         <v>11</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="B20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="35">
         <v>2005013</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="36">
         <v>7000000</v>
       </c>
-      <c r="F20" s="31">
-        <v>0</v>
-      </c>
-      <c r="G20" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31">
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36">
         <f>SUM(E20:J20)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="36">
         <f xml:space="preserve"> K20 / 24 * L20</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N20" s="31">
+        <v>6562500</v>
+      </c>
+      <c r="N20" s="36">
         <f>SUM(E20:F20)</f>
         <v>7000000</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="36">
         <f>N20 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="36">
         <f>N20 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="36">
         <f>N20 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="36">
         <f>N20 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="36">
         <f>SUM(O20:R20)</f>
         <v>1393000</v>
       </c>
-      <c r="T20" s="31">
+      <c r="T20" s="36">
         <f>N20 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="36">
         <f>N20 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V20" s="31">
+      <c r="V20" s="36">
         <f>N20 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W20" s="31">
+      <c r="W20" s="36">
         <f>SUM(T20:V20)</f>
         <v>735000</v>
       </c>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31">
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36">
         <f>M20-W20-X20</f>
-        <v>6431666.666666666</v>
+        <v>5827500</v>
       </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="33">
         <v>12</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="B21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="35">
         <v>2005014</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="D21" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="36">
         <v>7000000</v>
       </c>
-      <c r="F21" s="31">
-        <v>0</v>
-      </c>
-      <c r="G21" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36">
         <f>SUM(E21:J21)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="L21" s="36">
+        <v>24</v>
+      </c>
+      <c r="M21" s="36">
         <f xml:space="preserve"> K21 / 24 * L21</f>
-        <v>7833333.333333333</v>
-      </c>
-      <c r="N21" s="31">
+        <v>7000000</v>
+      </c>
+      <c r="N21" s="36">
         <f>SUM(E21:F21)</f>
         <v>7000000</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="36">
         <f>N21 * 0.02</f>
         <v>140000</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="36">
         <f>N21 *0.175</f>
         <v>1225000</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="36">
         <f>N21 *0.003</f>
         <v>21000</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="36">
         <f>N21 *0.001</f>
         <v>7000</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="36">
         <f>SUM(O21:R21)</f>
         <v>1393000</v>
       </c>
-      <c r="T21" s="31">
+      <c r="T21" s="36">
         <f>N21 *0.08</f>
         <v>560000</v>
       </c>
-      <c r="U21" s="31">
+      <c r="U21" s="36">
         <f>N21 *0.015</f>
         <v>105000</v>
       </c>
-      <c r="V21" s="31">
+      <c r="V21" s="36">
         <f>N21 *0.01</f>
         <v>70000</v>
       </c>
-      <c r="W21" s="31">
+      <c r="W21" s="36">
         <f>SUM(T21:V21)</f>
         <v>735000</v>
       </c>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31">
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36">
         <f>M21-W21-X21</f>
-        <v>7098333.333333333</v>
+        <v>6265000</v>
       </c>
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="28">
-        <v>13</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="30">
-        <v>2005015</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31">
-        <f>SUM(E22:J22)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="31">
-        <f xml:space="preserve"> K22 / 24 * L22</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N22" s="31">
-        <f>SUM(E22:F22)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O22" s="31">
-        <f>N22 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P22" s="31">
-        <f>N22 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q22" s="31">
-        <f>N22 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R22" s="31">
-        <f>N22 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S22" s="31">
-        <f>SUM(O22:R22)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T22" s="31">
-        <f>N22 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U22" s="31">
-        <f>N22 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V22" s="31">
-        <f>N22 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W22" s="31">
-        <f>SUM(T22:V22)</f>
-        <v>735000</v>
-      </c>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31">
-        <f>M22-W22-X22</f>
-        <v>6431666.666666666</v>
+      <c r="A22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="36">
+        <f>SUM(Y9:Y21)</f>
+        <v>82320000.000000015</v>
       </c>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
-        <v>14</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="30">
-        <v>2005017</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F23" s="31">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31">
-        <f>SUM(E23:J23)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L23" s="31">
-        <v>24</v>
-      </c>
-      <c r="M23" s="31">
-        <f xml:space="preserve"> K23 / 24 * L23</f>
-        <v>8000000</v>
-      </c>
-      <c r="N23" s="31">
-        <f>SUM(E23:F23)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O23" s="31">
-        <f>N23 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P23" s="31">
-        <f>N23 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q23" s="31">
-        <f>N23 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R23" s="31">
-        <f>N23 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S23" s="31">
-        <f>SUM(O23:R23)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T23" s="31">
-        <f>N23 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U23" s="31">
-        <f>N23 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V23" s="31">
-        <f>N23 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W23" s="31">
-        <f>SUM(T23:V23)</f>
-        <v>735000</v>
-      </c>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31">
-        <f>M23-W23-X23</f>
-        <v>7265000</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
-        <v>15</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="30">
-        <v>2005018</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F24" s="31">
-        <v>0</v>
-      </c>
-      <c r="G24" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31">
-        <f>SUM(E24:J24)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="31">
-        <f xml:space="preserve"> K24 / 24 * L24</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N24" s="31">
-        <f>SUM(E24:F24)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O24" s="31">
-        <f>N24 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P24" s="31">
-        <f>N24 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q24" s="31">
-        <f>N24 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R24" s="31">
-        <f>N24 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S24" s="31">
-        <f>SUM(O24:R24)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T24" s="31">
-        <f>N24 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U24" s="31">
-        <f>N24 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V24" s="31">
-        <f>N24 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W24" s="31">
-        <f>SUM(T24:V24)</f>
-        <v>735000</v>
-      </c>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31">
-        <f>M24-W24-X24</f>
-        <v>6431666.666666666</v>
-      </c>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
-        <v>16</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="30">
-        <v>2005019</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F25" s="31">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31">
-        <f>SUM(E25:J25)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25" s="31">
-        <f xml:space="preserve"> K25 / 24 * L25</f>
-        <v>7500000</v>
-      </c>
-      <c r="N25" s="31">
-        <f>SUM(E25:F25)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O25" s="31">
-        <f>N25 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P25" s="31">
-        <f>N25 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q25" s="31">
-        <f>N25 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R25" s="31">
-        <f>N25 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S25" s="31">
-        <f>SUM(O25:R25)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T25" s="31">
-        <f>N25 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U25" s="31">
-        <f>N25 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V25" s="31">
-        <f>N25 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W25" s="31">
-        <f>SUM(T25:V25)</f>
-        <v>735000</v>
-      </c>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31">
-        <f>M25-W25-X25</f>
-        <v>6765000</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="28">
-        <v>17</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="30">
-        <v>2005020</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F26" s="31">
-        <v>0</v>
-      </c>
-      <c r="G26" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31">
-        <f>SUM(E26:J26)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L26" s="31">
-        <v>24</v>
-      </c>
-      <c r="M26" s="31">
-        <f xml:space="preserve"> K26 / 24 * L26</f>
-        <v>8000000</v>
-      </c>
-      <c r="N26" s="31">
-        <f>SUM(E26:F26)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O26" s="31">
-        <f>N26 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P26" s="31">
-        <f>N26 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q26" s="31">
-        <f>N26 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R26" s="31">
-        <f>N26 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S26" s="31">
-        <f>SUM(O26:R26)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T26" s="31">
-        <f>N26 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U26" s="31">
-        <f>N26 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V26" s="31">
-        <f>N26 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W26" s="31">
-        <f>SUM(T26:V26)</f>
-        <v>735000</v>
-      </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31">
-        <f>M26-W26-X26</f>
-        <v>7265000</v>
-      </c>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
-        <v>18</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="30">
-        <v>2005021</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F27" s="31">
-        <v>0</v>
-      </c>
-      <c r="G27" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31">
-        <f>SUM(E27:J27)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L27" s="31">
-        <v>23</v>
-      </c>
-      <c r="M27" s="31">
-        <f xml:space="preserve"> K27 / 24 * L27</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N27" s="31">
-        <f>SUM(E27:F27)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O27" s="31">
-        <f>N27 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P27" s="31">
-        <f>N27 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q27" s="31">
-        <f>N27 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R27" s="31">
-        <f>N27 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S27" s="31">
-        <f>SUM(O27:R27)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T27" s="31">
-        <f>N27 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U27" s="31">
-        <f>N27 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V27" s="31">
-        <f>N27 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W27" s="31">
-        <f>SUM(T27:V27)</f>
-        <v>735000</v>
-      </c>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31">
-        <f>M27-W27-X27</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="28">
-        <v>19</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="30">
-        <v>2005022</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F28" s="31">
-        <v>0</v>
-      </c>
-      <c r="G28" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31">
-        <f>SUM(E28:J28)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="31">
-        <f xml:space="preserve"> K28 / 24 * L28</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N28" s="31">
-        <f>SUM(E28:F28)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O28" s="31">
-        <f>N28 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P28" s="31">
-        <f>N28 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q28" s="31">
-        <f>N28 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R28" s="31">
-        <f>N28 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S28" s="31">
-        <f>SUM(O28:R28)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T28" s="31">
-        <f>N28 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U28" s="31">
-        <f>N28 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V28" s="31">
-        <f>N28 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W28" s="31">
-        <f>SUM(T28:V28)</f>
-        <v>735000</v>
-      </c>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31">
-        <f>M28-W28-X28</f>
-        <v>6431666.666666666</v>
-      </c>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="28">
-        <v>20</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="30">
-        <v>2005023</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F29" s="31">
-        <v>0</v>
-      </c>
-      <c r="G29" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31">
-        <f>SUM(E29:J29)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" s="31">
-        <f xml:space="preserve"> K29 / 24 * L29</f>
-        <v>7500000</v>
-      </c>
-      <c r="N29" s="31">
-        <f>SUM(E29:F29)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O29" s="31">
-        <f>N29 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P29" s="31">
-        <f>N29 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q29" s="31">
-        <f>N29 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R29" s="31">
-        <f>N29 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S29" s="31">
-        <f>SUM(O29:R29)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T29" s="31">
-        <f>N29 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U29" s="31">
-        <f>N29 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V29" s="31">
-        <f>N29 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W29" s="31">
-        <f>SUM(T29:V29)</f>
-        <v>735000</v>
-      </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31">
-        <f>M29-W29-X29</f>
-        <v>6765000</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="28">
-        <v>21</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="30">
-        <v>2005024</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F30" s="31">
-        <v>0</v>
-      </c>
-      <c r="G30" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31">
-        <f>SUM(E30:J30)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="31">
-        <f xml:space="preserve"> K30 / 24 * L30</f>
-        <v>7500000</v>
-      </c>
-      <c r="N30" s="31">
-        <f>SUM(E30:F30)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O30" s="31">
-        <f>N30 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P30" s="31">
-        <f>N30 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q30" s="31">
-        <f>N30 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R30" s="31">
-        <f>N30 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S30" s="31">
-        <f>SUM(O30:R30)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T30" s="31">
-        <f>N30 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U30" s="31">
-        <f>N30 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V30" s="31">
-        <f>N30 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W30" s="31">
-        <f>SUM(T30:V30)</f>
-        <v>735000</v>
-      </c>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31">
-        <f>M30-W30-X30</f>
-        <v>6765000</v>
-      </c>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="28">
-        <v>22</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="30">
-        <v>2005206</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F31" s="31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31">
-        <f>SUM(E31:J31)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L31" s="31">
-        <v>23</v>
-      </c>
-      <c r="M31" s="31">
-        <f xml:space="preserve"> K31 / 24 * L31</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N31" s="31">
-        <f>SUM(E31:F31)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O31" s="31">
-        <f>N31 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P31" s="31">
-        <f>N31 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q31" s="31">
-        <f>N31 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R31" s="31">
-        <f>N31 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S31" s="31">
-        <f>SUM(O31:R31)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T31" s="31">
-        <f>N31 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U31" s="31">
-        <f>N31 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V31" s="31">
-        <f>N31 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W31" s="31">
-        <f>SUM(T31:V31)</f>
-        <v>735000</v>
-      </c>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31">
-        <f>M31-W31-X31</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="28">
-        <v>23</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="30">
-        <v>2005207</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F32" s="31">
-        <v>0</v>
-      </c>
-      <c r="G32" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31">
-        <f>SUM(E32:J32)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L32" s="31">
-        <v>22</v>
-      </c>
-      <c r="M32" s="31">
-        <f xml:space="preserve"> K32 / 24 * L32</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N32" s="31">
-        <f>SUM(E32:F32)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O32" s="31">
-        <f>N32 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P32" s="31">
-        <f>N32 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q32" s="31">
-        <f>N32 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R32" s="31">
-        <f>N32 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S32" s="31">
-        <f>SUM(O32:R32)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T32" s="31">
-        <f>N32 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U32" s="31">
-        <f>N32 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V32" s="31">
-        <f>N32 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W32" s="31">
-        <f>SUM(T32:V32)</f>
-        <v>735000</v>
-      </c>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31">
-        <f>M32-W32-X32</f>
-        <v>6598333.333333333</v>
-      </c>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
-        <v>24</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="30">
-        <v>2005208</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="31">
-        <v>7000000</v>
-      </c>
-      <c r="F33" s="31">
-        <v>0</v>
-      </c>
-      <c r="G33" s="31">
-        <v>500000</v>
-      </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31">
-        <v>500000</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31">
-        <f>SUM(E33:J33)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L33" s="31">
-        <v>22</v>
-      </c>
-      <c r="M33" s="31">
-        <f xml:space="preserve"> K33 / 24 * L33</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N33" s="31">
-        <f>SUM(E33:F33)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O33" s="31">
-        <f>N33 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P33" s="31">
-        <f>N33 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q33" s="31">
-        <f>N33 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R33" s="31">
-        <f>N33 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S33" s="31">
-        <f>SUM(O33:R33)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T33" s="31">
-        <f>N33 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U33" s="31">
-        <f>N33 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V33" s="31">
-        <f>N33 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W33" s="31">
-        <f>SUM(T33:V33)</f>
-        <v>735000</v>
-      </c>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31">
-        <f>M33-W33-X33</f>
-        <v>6598333.333333333</v>
-      </c>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>25</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="30">
-        <v>2005209</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="30">
-        <v>7000000</v>
-      </c>
-      <c r="F34" s="30">
-        <v>0</v>
-      </c>
-      <c r="G34" s="30">
-        <v>500000</v>
-      </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30">
-        <v>500000</v>
-      </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30">
-        <f>SUM(E34:J34)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L34" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="30">
-        <f xml:space="preserve"> K34 / 24 * L34</f>
-        <v>7500000</v>
-      </c>
-      <c r="N34" s="30">
-        <f>SUM(E34:F34)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O34" s="30">
-        <f>N34 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P34" s="30">
-        <f>N34 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q34" s="30">
-        <f>N34 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R34" s="30">
-        <f>N34 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S34" s="30">
-        <f>SUM(O34:R34)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T34" s="30">
-        <f>N34 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U34" s="30">
-        <f>N34 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V34" s="30">
-        <f>N34 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W34" s="30">
-        <f>SUM(T34:V34)</f>
-        <v>735000</v>
-      </c>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30">
-        <f>M34-W34-X34</f>
-        <v>6765000</v>
-      </c>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="28">
-        <v>26</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="34">
-        <v>2005210</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F35" s="34">
-        <v>0</v>
-      </c>
-      <c r="G35" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34">
-        <f>SUM(E35:J35)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="34">
-        <f xml:space="preserve"> K35 / 24 * L35</f>
-        <v>7500000</v>
-      </c>
-      <c r="N35" s="34">
-        <f>SUM(E35:F35)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O35" s="34">
-        <f>N35 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P35" s="34">
-        <f>N35 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q35" s="34">
-        <f>N35 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R35" s="34">
-        <f>N35 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S35" s="34">
-        <f>SUM(O35:R35)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T35" s="34">
-        <f>N35 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U35" s="34">
-        <f>N35 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V35" s="34">
-        <f>N35 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W35" s="34">
-        <f>SUM(T35:V35)</f>
-        <v>735000</v>
-      </c>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34">
-        <f>M35-W35-X35</f>
-        <v>6765000</v>
-      </c>
+      <c r="A35" s="17"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="28">
-        <v>27</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="34">
-        <v>2005211</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F36" s="34">
-        <v>0</v>
-      </c>
-      <c r="G36" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34">
-        <f>SUM(E36:J36)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L36" s="34">
-        <v>24</v>
-      </c>
-      <c r="M36" s="34">
-        <f xml:space="preserve"> K36 / 24 * L36</f>
-        <v>8000000</v>
-      </c>
-      <c r="N36" s="34">
-        <f>SUM(E36:F36)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O36" s="34">
-        <f>N36 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P36" s="34">
-        <f>N36 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q36" s="34">
-        <f>N36 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R36" s="34">
-        <f>N36 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S36" s="34">
-        <f>SUM(O36:R36)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T36" s="34">
-        <f>N36 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U36" s="34">
-        <f>N36 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V36" s="34">
-        <f>N36 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W36" s="34">
-        <f>SUM(T36:V36)</f>
-        <v>735000</v>
-      </c>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34">
-        <f>M36-W36-X36</f>
-        <v>7265000</v>
-      </c>
+      <c r="A36" s="17"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="35">
-        <v>28</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="37">
-        <v>2005212</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F37" s="34">
-        <v>0</v>
-      </c>
-      <c r="G37" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34">
-        <f>SUM(E37:J37)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="34">
-        <f xml:space="preserve"> K37 / 24 * L37</f>
-        <v>7500000</v>
-      </c>
-      <c r="N37" s="34">
-        <f>SUM(E37:F37)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O37" s="34">
-        <f>N37 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P37" s="34">
-        <f>N37 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q37" s="34">
-        <f>N37 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R37" s="34">
-        <f>N37 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S37" s="34">
-        <f>SUM(O37:R37)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T37" s="34">
-        <f>N37 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U37" s="34">
-        <f>N37 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V37" s="34">
-        <f>N37 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W37" s="34">
-        <f>SUM(T37:V37)</f>
-        <v>735000</v>
-      </c>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34">
-        <f>M37-W37-X37</f>
-        <v>6765000</v>
-      </c>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
       <c r="AA37" s="12"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="35">
-        <v>29</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="34">
-        <v>2005213</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F38" s="34">
-        <v>0</v>
-      </c>
-      <c r="G38" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34">
-        <f>SUM(E38:J38)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L38" s="34">
-        <v>23</v>
-      </c>
-      <c r="M38" s="34">
-        <f xml:space="preserve"> K38 / 24 * L38</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N38" s="34">
-        <f>SUM(E38:F38)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O38" s="34">
-        <f>N38 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P38" s="34">
-        <f>N38 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q38" s="34">
-        <f>N38 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R38" s="34">
-        <f>N38 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S38" s="34">
-        <f>SUM(O38:R38)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T38" s="34">
-        <f>N38 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U38" s="34">
-        <f>N38 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V38" s="34">
-        <f>N38 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W38" s="34">
-        <f>SUM(T38:V38)</f>
-        <v>735000</v>
-      </c>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34">
-        <f>M38-W38-X38</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A38" s="18"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="35">
-        <v>30</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="34">
-        <v>2005214</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F39" s="34">
-        <v>0</v>
-      </c>
-      <c r="G39" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34">
-        <f>SUM(E39:J39)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L39" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="34">
-        <f xml:space="preserve"> K39 / 24 * L39</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N39" s="34">
-        <f>SUM(E39:F39)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O39" s="34">
-        <f>N39 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P39" s="34">
-        <f>N39 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q39" s="34">
-        <f>N39 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R39" s="34">
-        <f>N39 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S39" s="34">
-        <f>SUM(O39:R39)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T39" s="34">
-        <f>N39 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U39" s="34">
-        <f>N39 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V39" s="34">
-        <f>N39 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W39" s="34">
-        <f>SUM(T39:V39)</f>
-        <v>735000</v>
-      </c>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34">
-        <f>M39-W39-X39</f>
-        <v>6431666.666666666</v>
-      </c>
+      <c r="A39" s="18"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
       <c r="AA39" s="12"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="35">
-        <v>31</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="34">
-        <v>2005215</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F40" s="34">
-        <v>0</v>
-      </c>
-      <c r="G40" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34">
-        <f>SUM(E40:J40)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L40" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M40" s="34">
-        <f xml:space="preserve"> K40 / 24 * L40</f>
-        <v>6833333.333333333</v>
-      </c>
-      <c r="N40" s="34">
-        <f>SUM(E40:F40)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O40" s="34">
-        <f>N40 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P40" s="34">
-        <f>N40 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q40" s="34">
-        <f>N40 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R40" s="34">
-        <f>N40 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S40" s="34">
-        <f>SUM(O40:R40)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T40" s="34">
-        <f>N40 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U40" s="34">
-        <f>N40 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V40" s="34">
-        <f>N40 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W40" s="34">
-        <f>SUM(T40:V40)</f>
-        <v>735000</v>
-      </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34">
-        <f>M40-W40-X40</f>
-        <v>6098333.333333333</v>
-      </c>
+      <c r="A40" s="18"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="35">
-        <v>32</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="34">
-        <v>2005216</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F41" s="34">
-        <v>0</v>
-      </c>
-      <c r="G41" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34">
-        <f>SUM(E41:J41)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L41" s="34">
-        <v>21</v>
-      </c>
-      <c r="M41" s="34">
-        <f xml:space="preserve"> K41 / 24 * L41</f>
-        <v>7000000</v>
-      </c>
-      <c r="N41" s="34">
-        <f>SUM(E41:F41)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O41" s="34">
-        <f>N41 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P41" s="34">
-        <f>N41 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q41" s="34">
-        <f>N41 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R41" s="34">
-        <f>N41 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S41" s="34">
-        <f>SUM(O41:R41)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T41" s="34">
-        <f>N41 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U41" s="34">
-        <f>N41 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V41" s="34">
-        <f>N41 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W41" s="34">
-        <f>SUM(T41:V41)</f>
-        <v>735000</v>
-      </c>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34">
-        <f>M41-W41-X41</f>
-        <v>6265000</v>
-      </c>
+      <c r="A41" s="18"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="12"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="35">
-        <v>33</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="34">
-        <v>2005217</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F42" s="34">
-        <v>0</v>
-      </c>
-      <c r="G42" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34">
-        <f>SUM(E42:J42)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L42" s="34">
-        <v>23</v>
-      </c>
-      <c r="M42" s="34">
-        <f xml:space="preserve"> K42 / 24 * L42</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N42" s="34">
-        <f>SUM(E42:F42)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O42" s="34">
-        <f>N42 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P42" s="34">
-        <f>N42 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q42" s="34">
-        <f>N42 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R42" s="34">
-        <f>N42 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S42" s="34">
-        <f>SUM(O42:R42)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T42" s="34">
-        <f>N42 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U42" s="34">
-        <f>N42 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V42" s="34">
-        <f>N42 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W42" s="34">
-        <f>SUM(T42:V42)</f>
-        <v>735000</v>
-      </c>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34">
-        <f>M42-W42-X42</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A42" s="18"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="12"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="35">
-        <v>34</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="34">
-        <v>2005218</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F43" s="34">
-        <v>0</v>
-      </c>
-      <c r="G43" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34">
-        <f>SUM(E43:J43)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L43" s="34">
-        <v>23</v>
-      </c>
-      <c r="M43" s="34">
-        <f xml:space="preserve"> K43 / 24 * L43</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N43" s="34">
-        <f>SUM(E43:F43)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O43" s="34">
-        <f>N43 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P43" s="34">
-        <f>N43 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q43" s="34">
-        <f>N43 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R43" s="34">
-        <f>N43 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S43" s="34">
-        <f>SUM(O43:R43)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T43" s="34">
-        <f>N43 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U43" s="34">
-        <f>N43 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V43" s="34">
-        <f>N43 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W43" s="34">
-        <f>SUM(T43:V43)</f>
-        <v>735000</v>
-      </c>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34">
-        <f>M43-W43-X43</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="12"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="35">
-        <v>35</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="34">
-        <v>2005219</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F44" s="34">
-        <v>0</v>
-      </c>
-      <c r="G44" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34">
-        <f>SUM(E44:J44)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L44" s="34">
-        <v>23</v>
-      </c>
-      <c r="M44" s="34">
-        <f xml:space="preserve"> K44 / 24 * L44</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N44" s="34">
-        <f>SUM(E44:F44)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O44" s="34">
-        <f>N44 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P44" s="34">
-        <f>N44 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q44" s="34">
-        <f>N44 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R44" s="34">
-        <f>N44 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S44" s="34">
-        <f>SUM(O44:R44)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T44" s="34">
-        <f>N44 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U44" s="34">
-        <f>N44 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V44" s="34">
-        <f>N44 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W44" s="34">
-        <f>SUM(T44:V44)</f>
-        <v>735000</v>
-      </c>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34">
-        <f>M44-W44-X44</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A44" s="18"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="12"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="35">
-        <v>36</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="34">
-        <v>2005220</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F45" s="34">
-        <v>0</v>
-      </c>
-      <c r="G45" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34">
-        <f>SUM(E45:J45)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M45" s="34">
-        <f xml:space="preserve"> K45 / 24 * L45</f>
-        <v>7166666.666666666</v>
-      </c>
-      <c r="N45" s="34">
-        <f>SUM(E45:F45)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O45" s="34">
-        <f>N45 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P45" s="34">
-        <f>N45 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q45" s="34">
-        <f>N45 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R45" s="34">
-        <f>N45 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S45" s="34">
-        <f>SUM(O45:R45)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T45" s="34">
-        <f>N45 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U45" s="34">
-        <f>N45 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V45" s="34">
-        <f>N45 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W45" s="34">
-        <f>SUM(T45:V45)</f>
-        <v>735000</v>
-      </c>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34">
-        <f>M45-W45-X45</f>
-        <v>6431666.666666666</v>
-      </c>
+      <c r="A45" s="18"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="12"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="35">
-        <v>37</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="34">
-        <v>2005221</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F46" s="34">
-        <v>0</v>
-      </c>
-      <c r="G46" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34">
-        <f>SUM(E46:J46)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L46" s="34">
-        <v>22</v>
-      </c>
-      <c r="M46" s="34">
-        <f xml:space="preserve"> K46 / 24 * L46</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N46" s="34">
-        <f>SUM(E46:F46)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O46" s="34">
-        <f>N46 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P46" s="34">
-        <f>N46 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q46" s="34">
-        <f>N46 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R46" s="34">
-        <f>N46 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S46" s="34">
-        <f>SUM(O46:R46)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T46" s="34">
-        <f>N46 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U46" s="34">
-        <f>N46 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V46" s="34">
-        <f>N46 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W46" s="34">
-        <f>SUM(T46:V46)</f>
-        <v>735000</v>
-      </c>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34">
-        <f>M46-W46-X46</f>
-        <v>6598333.333333333</v>
-      </c>
+      <c r="A46" s="18"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="12"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="35">
-        <v>38</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="34">
-        <v>2005222</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F47" s="34">
-        <v>0</v>
-      </c>
-      <c r="G47" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34">
-        <f>SUM(E47:J47)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L47" s="34">
-        <v>23</v>
-      </c>
-      <c r="M47" s="34">
-        <f xml:space="preserve"> K47 / 24 * L47</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N47" s="34">
-        <f>SUM(E47:F47)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O47" s="34">
-        <f>N47 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P47" s="34">
-        <f>N47 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q47" s="34">
-        <f>N47 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R47" s="34">
-        <f>N47 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S47" s="34">
-        <f>SUM(O47:R47)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T47" s="34">
-        <f>N47 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U47" s="34">
-        <f>N47 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V47" s="34">
-        <f>N47 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W47" s="34">
-        <f>SUM(T47:V47)</f>
-        <v>735000</v>
-      </c>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34">
-        <f>M47-W47-X47</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A47" s="18"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="12"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="35">
-        <v>39</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="34">
-        <v>2005223</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F48" s="34">
-        <v>0</v>
-      </c>
-      <c r="G48" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34">
-        <f>SUM(E48:J48)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L48" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M48" s="34">
-        <f xml:space="preserve"> K48 / 24 * L48</f>
-        <v>8166666.666666666</v>
-      </c>
-      <c r="N48" s="34">
-        <f>SUM(E48:F48)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O48" s="34">
-        <f>N48 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P48" s="34">
-        <f>N48 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q48" s="34">
-        <f>N48 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R48" s="34">
-        <f>N48 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S48" s="34">
-        <f>SUM(O48:R48)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T48" s="34">
-        <f>N48 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U48" s="34">
-        <f>N48 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V48" s="34">
-        <f>N48 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W48" s="34">
-        <f>SUM(T48:V48)</f>
-        <v>735000</v>
-      </c>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34">
-        <f>M48-W48-X48</f>
-        <v>7431666.666666666</v>
-      </c>
+      <c r="A48" s="18"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
       <c r="AA48" s="12"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="35">
-        <v>40</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="34">
-        <v>2005224</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F49" s="34">
-        <v>0</v>
-      </c>
-      <c r="G49" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34">
-        <f>SUM(E49:J49)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L49" s="34">
-        <v>23</v>
-      </c>
-      <c r="M49" s="34">
-        <f xml:space="preserve"> K49 / 24 * L49</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N49" s="34">
-        <f>SUM(E49:F49)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O49" s="34">
-        <f>N49 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P49" s="34">
-        <f>N49 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q49" s="34">
-        <f>N49 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R49" s="34">
-        <f>N49 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S49" s="34">
-        <f>SUM(O49:R49)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T49" s="34">
-        <f>N49 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U49" s="34">
-        <f>N49 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V49" s="34">
-        <f>N49 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W49" s="34">
-        <f>SUM(T49:V49)</f>
-        <v>735000</v>
-      </c>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34">
-        <f>M49-W49-X49</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A49" s="18"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" s="35">
-        <v>41</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="34">
-        <v>2005225</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F50" s="34">
-        <v>0</v>
-      </c>
-      <c r="G50" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34">
-        <f>SUM(E50:J50)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L50" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="34">
-        <f xml:space="preserve"> K50 / 24 * L50</f>
-        <v>7833333.333333333</v>
-      </c>
-      <c r="N50" s="34">
-        <f>SUM(E50:F50)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O50" s="34">
-        <f>N50 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P50" s="34">
-        <f>N50 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q50" s="34">
-        <f>N50 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R50" s="34">
-        <f>N50 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S50" s="34">
-        <f>SUM(O50:R50)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T50" s="34">
-        <f>N50 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U50" s="34">
-        <f>N50 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V50" s="34">
-        <f>N50 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W50" s="34">
-        <f>SUM(T50:V50)</f>
-        <v>735000</v>
-      </c>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34">
-        <f>M50-W50-X50</f>
-        <v>7098333.333333333</v>
-      </c>
+      <c r="A50" s="18"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="35">
-        <v>42</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="34">
-        <v>2005226</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F51" s="34">
-        <v>0</v>
-      </c>
-      <c r="G51" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34">
-        <f>SUM(E51:J51)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L51" s="34">
-        <v>24</v>
-      </c>
-      <c r="M51" s="34">
-        <f xml:space="preserve"> K51 / 24 * L51</f>
-        <v>8000000</v>
-      </c>
-      <c r="N51" s="34">
-        <f>SUM(E51:F51)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O51" s="34">
-        <f>N51 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P51" s="34">
-        <f>N51 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q51" s="34">
-        <f>N51 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R51" s="34">
-        <f>N51 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S51" s="34">
-        <f>SUM(O51:R51)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T51" s="34">
-        <f>N51 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U51" s="34">
-        <f>N51 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V51" s="34">
-        <f>N51 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W51" s="34">
-        <f>SUM(T51:V51)</f>
-        <v>735000</v>
-      </c>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34">
-        <f>M51-W51-X51</f>
-        <v>7265000</v>
-      </c>
+      <c r="A51" s="18"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="35">
-        <v>43</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="34">
-        <v>2005227</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34">
-        <f>SUM(E52:J52)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M52" s="34">
-        <f xml:space="preserve"> K52 / 24 * L52</f>
-        <v>7500000</v>
-      </c>
-      <c r="N52" s="34">
-        <f>SUM(E52:F52)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O52" s="34">
-        <f>N52 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P52" s="34">
-        <f>N52 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q52" s="34">
-        <f>N52 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R52" s="34">
-        <f>N52 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S52" s="34">
-        <f>SUM(O52:R52)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T52" s="34">
-        <f>N52 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U52" s="34">
-        <f>N52 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V52" s="34">
-        <f>N52 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W52" s="34">
-        <f>SUM(T52:V52)</f>
-        <v>735000</v>
-      </c>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34">
-        <f>M52-W52-X52</f>
-        <v>6765000</v>
-      </c>
+      <c r="A52" s="18"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
       <c r="AA52" s="12"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="35">
-        <v>44</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="34">
-        <v>2005228</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34">
-        <f>SUM(E53:J53)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L53" s="34">
-        <v>24</v>
-      </c>
-      <c r="M53" s="34">
-        <f xml:space="preserve"> K53 / 24 * L53</f>
-        <v>8000000</v>
-      </c>
-      <c r="N53" s="34">
-        <f>SUM(E53:F53)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O53" s="34">
-        <f>N53 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P53" s="34">
-        <f>N53 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q53" s="34">
-        <f>N53 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R53" s="34">
-        <f>N53 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S53" s="34">
-        <f>SUM(O53:R53)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T53" s="34">
-        <f>N53 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U53" s="34">
-        <f>N53 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V53" s="34">
-        <f>N53 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W53" s="34">
-        <f>SUM(T53:V53)</f>
-        <v>735000</v>
-      </c>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34">
-        <f>M53-W53-X53</f>
-        <v>7265000</v>
-      </c>
+      <c r="A53" s="18"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
       <c r="AA53" s="12"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="35">
-        <v>45</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="34">
-        <v>2005229</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-      <c r="G54" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34">
-        <f>SUM(E54:J54)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L54" s="34">
-        <v>22</v>
-      </c>
-      <c r="M54" s="34">
-        <f xml:space="preserve"> K54 / 24 * L54</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N54" s="34">
-        <f>SUM(E54:F54)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O54" s="34">
-        <f>N54 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P54" s="34">
-        <f>N54 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q54" s="34">
-        <f>N54 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R54" s="34">
-        <f>N54 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S54" s="34">
-        <f>SUM(O54:R54)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T54" s="34">
-        <f>N54 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U54" s="34">
-        <f>N54 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V54" s="34">
-        <f>N54 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W54" s="34">
-        <f>SUM(T54:V54)</f>
-        <v>735000</v>
-      </c>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34">
-        <f>M54-W54-X54</f>
-        <v>6598333.333333333</v>
-      </c>
+      <c r="A54" s="18"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="35">
-        <v>46</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="34">
-        <v>2005230</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34">
-        <f>SUM(E55:J55)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L55" s="34">
-        <v>22</v>
-      </c>
-      <c r="M55" s="34">
-        <f xml:space="preserve"> K55 / 24 * L55</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N55" s="34">
-        <f>SUM(E55:F55)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O55" s="34">
-        <f>N55 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P55" s="34">
-        <f>N55 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q55" s="34">
-        <f>N55 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R55" s="34">
-        <f>N55 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S55" s="34">
-        <f>SUM(O55:R55)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T55" s="34">
-        <f>N55 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U55" s="34">
-        <f>N55 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V55" s="34">
-        <f>N55 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W55" s="34">
-        <f>SUM(T55:V55)</f>
-        <v>735000</v>
-      </c>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34">
-        <f>M55-W55-X55</f>
-        <v>6598333.333333333</v>
-      </c>
+      <c r="A55" s="18"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="35">
-        <v>47</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="34">
-        <v>2005231</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F56" s="34">
-        <v>0</v>
-      </c>
-      <c r="G56" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34">
-        <f>SUM(E56:J56)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L56" s="34">
-        <v>21</v>
-      </c>
-      <c r="M56" s="34">
-        <f xml:space="preserve"> K56 / 24 * L56</f>
-        <v>7000000</v>
-      </c>
-      <c r="N56" s="34">
-        <f>SUM(E56:F56)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O56" s="34">
-        <f>N56 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P56" s="34">
-        <f>N56 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q56" s="34">
-        <f>N56 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R56" s="34">
-        <f>N56 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S56" s="34">
-        <f>SUM(O56:R56)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T56" s="34">
-        <f>N56 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U56" s="34">
-        <f>N56 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V56" s="34">
-        <f>N56 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W56" s="34">
-        <f>SUM(T56:V56)</f>
-        <v>735000</v>
-      </c>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34">
-        <f>M56-W56-X56</f>
-        <v>6265000</v>
-      </c>
+      <c r="A56" s="18"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="35">
-        <v>48</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="34">
-        <v>2005232</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F57" s="34">
-        <v>0</v>
-      </c>
-      <c r="G57" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34">
-        <f>SUM(E57:J57)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L57" s="34">
-        <v>22</v>
-      </c>
-      <c r="M57" s="34">
-        <f xml:space="preserve"> K57 / 24 * L57</f>
-        <v>7333333.333333333</v>
-      </c>
-      <c r="N57" s="34">
-        <f>SUM(E57:F57)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O57" s="34">
-        <f>N57 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P57" s="34">
-        <f>N57 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q57" s="34">
-        <f>N57 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R57" s="34">
-        <f>N57 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S57" s="34">
-        <f>SUM(O57:R57)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T57" s="34">
-        <f>N57 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U57" s="34">
-        <f>N57 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V57" s="34">
-        <f>N57 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W57" s="34">
-        <f>SUM(T57:V57)</f>
-        <v>735000</v>
-      </c>
-      <c r="X57" s="34"/>
-      <c r="Y57" s="34">
-        <f>M57-W57-X57</f>
-        <v>6598333.333333333</v>
-      </c>
+      <c r="A57" s="18"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="12"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="35">
-        <v>49</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="34">
-        <v>2005233</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F58" s="34">
-        <v>0</v>
-      </c>
-      <c r="G58" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34">
-        <f>SUM(E58:J58)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L58" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="34">
-        <f xml:space="preserve"> K58 / 24 * L58</f>
-        <v>7833333.333333333</v>
-      </c>
-      <c r="N58" s="34">
-        <f>SUM(E58:F58)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O58" s="34">
-        <f>N58 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P58" s="34">
-        <f>N58 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q58" s="34">
-        <f>N58 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R58" s="34">
-        <f>N58 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S58" s="34">
-        <f>SUM(O58:R58)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T58" s="34">
-        <f>N58 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U58" s="34">
-        <f>N58 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V58" s="34">
-        <f>N58 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W58" s="34">
-        <f>SUM(T58:V58)</f>
-        <v>735000</v>
-      </c>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34">
-        <f>M58-W58-X58</f>
-        <v>7098333.333333333</v>
-      </c>
+      <c r="A58" s="18"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
       <c r="AA58" s="12"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="35">
-        <v>50</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="34">
-        <v>2005234</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F59" s="34">
-        <v>0</v>
-      </c>
-      <c r="G59" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34">
-        <f>SUM(E59:J59)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L59" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="M59" s="34">
-        <f xml:space="preserve"> K59 / 24 * L59</f>
-        <v>6833333.333333333</v>
-      </c>
-      <c r="N59" s="34">
-        <f>SUM(E59:F59)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O59" s="34">
-        <f>N59 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P59" s="34">
-        <f>N59 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q59" s="34">
-        <f>N59 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R59" s="34">
-        <f>N59 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S59" s="34">
-        <f>SUM(O59:R59)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T59" s="34">
-        <f>N59 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U59" s="34">
-        <f>N59 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V59" s="34">
-        <f>N59 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W59" s="34">
-        <f>SUM(T59:V59)</f>
-        <v>735000</v>
-      </c>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34">
-        <f>M59-W59-X59</f>
-        <v>6098333.333333333</v>
-      </c>
+      <c r="A59" s="18"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="35">
-        <v>51</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="34">
-        <v>2005235</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F60" s="34">
-        <v>0</v>
-      </c>
-      <c r="G60" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34">
-        <f>SUM(E60:J60)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L60" s="34">
-        <v>23</v>
-      </c>
-      <c r="M60" s="34">
-        <f xml:space="preserve"> K60 / 24 * L60</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N60" s="34">
-        <f>SUM(E60:F60)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O60" s="34">
-        <f>N60 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P60" s="34">
-        <f>N60 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q60" s="34">
-        <f>N60 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R60" s="34">
-        <f>N60 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S60" s="34">
-        <f>SUM(O60:R60)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T60" s="34">
-        <f>N60 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U60" s="34">
-        <f>N60 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V60" s="34">
-        <f>N60 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W60" s="34">
-        <f>SUM(T60:V60)</f>
-        <v>735000</v>
-      </c>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34">
-        <f>M60-W60-X60</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A60" s="18"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
       <c r="AA60" s="12"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="35">
-        <v>52</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="34">
-        <v>2005236</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F61" s="34">
-        <v>0</v>
-      </c>
-      <c r="G61" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34">
-        <f>SUM(E61:J61)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L61" s="34">
-        <v>23</v>
-      </c>
-      <c r="M61" s="34">
-        <f xml:space="preserve"> K61 / 24 * L61</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N61" s="34">
-        <f>SUM(E61:F61)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O61" s="34">
-        <f>N61 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P61" s="34">
-        <f>N61 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q61" s="34">
-        <f>N61 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R61" s="34">
-        <f>N61 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S61" s="34">
-        <f>SUM(O61:R61)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T61" s="34">
-        <f>N61 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U61" s="34">
-        <f>N61 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V61" s="34">
-        <f>N61 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W61" s="34">
-        <f>SUM(T61:V61)</f>
-        <v>735000</v>
-      </c>
-      <c r="X61" s="34"/>
-      <c r="Y61" s="34">
-        <f>M61-W61-X61</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A61" s="18"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
       <c r="AA61" s="12"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="35">
-        <v>53</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="34">
-        <v>2005417</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F62" s="34">
-        <v>0</v>
-      </c>
-      <c r="G62" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34">
-        <f>SUM(E62:J62)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L62" s="34">
-        <v>23</v>
-      </c>
-      <c r="M62" s="34">
-        <f xml:space="preserve"> K62 / 24 * L62</f>
-        <v>7666666.666666666</v>
-      </c>
-      <c r="N62" s="34">
-        <f>SUM(E62:F62)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O62" s="34">
-        <f>N62 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P62" s="34">
-        <f>N62 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q62" s="34">
-        <f>N62 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R62" s="34">
-        <f>N62 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S62" s="34">
-        <f>SUM(O62:R62)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T62" s="34">
-        <f>N62 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U62" s="34">
-        <f>N62 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V62" s="34">
-        <f>N62 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W62" s="34">
-        <f>SUM(T62:V62)</f>
-        <v>735000</v>
-      </c>
-      <c r="X62" s="34"/>
-      <c r="Y62" s="34">
-        <f>M62-W62-X62</f>
-        <v>6931666.666666666</v>
-      </c>
+      <c r="A62" s="18"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
       <c r="AA62" s="12"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="35">
-        <v>54</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="34">
-        <v>2005418</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F63" s="34">
-        <v>0</v>
-      </c>
-      <c r="G63" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34">
-        <f>SUM(E63:J63)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L63" s="34">
-        <v>24</v>
-      </c>
-      <c r="M63" s="34">
-        <f xml:space="preserve"> K63 / 24 * L63</f>
-        <v>8000000</v>
-      </c>
-      <c r="N63" s="34">
-        <f>SUM(E63:F63)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O63" s="34">
-        <f>N63 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P63" s="34">
-        <f>N63 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q63" s="34">
-        <f>N63 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R63" s="34">
-        <f>N63 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S63" s="34">
-        <f>SUM(O63:R63)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T63" s="34">
-        <f>N63 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U63" s="34">
-        <f>N63 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V63" s="34">
-        <f>N63 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W63" s="34">
-        <f>SUM(T63:V63)</f>
-        <v>735000</v>
-      </c>
-      <c r="X63" s="34"/>
-      <c r="Y63" s="34">
-        <f>M63-W63-X63</f>
-        <v>7265000</v>
-      </c>
+      <c r="A63" s="18"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
       <c r="Z63" s="12"/>
       <c r="AA63" s="12"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="35">
-        <v>55</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="34">
-        <v>2005419</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F64" s="34">
-        <v>0</v>
-      </c>
-      <c r="G64" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34">
-        <f>SUM(E64:J64)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L64" s="34">
-        <v>24</v>
-      </c>
-      <c r="M64" s="34">
-        <f xml:space="preserve"> K64 / 24 * L64</f>
-        <v>8000000</v>
-      </c>
-      <c r="N64" s="34">
-        <f>SUM(E64:F64)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O64" s="34">
-        <f>N64 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P64" s="34">
-        <f>N64 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q64" s="34">
-        <f>N64 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R64" s="34">
-        <f>N64 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S64" s="34">
-        <f>SUM(O64:R64)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T64" s="34">
-        <f>N64 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U64" s="34">
-        <f>N64 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V64" s="34">
-        <f>N64 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W64" s="34">
-        <f>SUM(T64:V64)</f>
-        <v>735000</v>
-      </c>
-      <c r="X64" s="34"/>
-      <c r="Y64" s="34">
-        <f>M64-W64-X64</f>
-        <v>7265000</v>
-      </c>
+      <c r="A64" s="18"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
       <c r="Z64" s="12"/>
       <c r="AA64" s="12"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="35">
-        <v>56</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="34">
-        <v>2005420</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F65" s="34">
-        <v>0</v>
-      </c>
-      <c r="G65" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34">
-        <f>SUM(E65:J65)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L65" s="34">
-        <v>25</v>
-      </c>
-      <c r="M65" s="34">
-        <f xml:space="preserve"> K65 / 24 * L65</f>
-        <v>8333333.333333333</v>
-      </c>
-      <c r="N65" s="34">
-        <f>SUM(E65:F65)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O65" s="34">
-        <f>N65 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P65" s="34">
-        <f>N65 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q65" s="34">
-        <f>N65 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R65" s="34">
-        <f>N65 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S65" s="34">
-        <f>SUM(O65:R65)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T65" s="34">
-        <f>N65 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U65" s="34">
-        <f>N65 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V65" s="34">
-        <f>N65 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W65" s="34">
-        <f>SUM(T65:V65)</f>
-        <v>735000</v>
-      </c>
-      <c r="X65" s="34"/>
-      <c r="Y65" s="34">
-        <f>M65-W65-X65</f>
-        <v>7598333.333333333</v>
-      </c>
+      <c r="A65" s="18"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
       <c r="Z65" s="12"/>
       <c r="AA65" s="12"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="35">
-        <v>57</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="34">
-        <v>2005421</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F66" s="34">
-        <v>0</v>
-      </c>
-      <c r="G66" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34">
-        <f>SUM(E66:J66)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L66" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M66" s="34">
-        <f xml:space="preserve"> K66 / 24 * L66</f>
-        <v>7500000</v>
-      </c>
-      <c r="N66" s="34">
-        <f>SUM(E66:F66)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O66" s="34">
-        <f>N66 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P66" s="34">
-        <f>N66 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q66" s="34">
-        <f>N66 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R66" s="34">
-        <f>N66 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S66" s="34">
-        <f>SUM(O66:R66)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T66" s="34">
-        <f>N66 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U66" s="34">
-        <f>N66 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V66" s="34">
-        <f>N66 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W66" s="34">
-        <f>SUM(T66:V66)</f>
-        <v>735000</v>
-      </c>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34">
-        <f>M66-W66-X66</f>
-        <v>6765000</v>
-      </c>
+      <c r="A66" s="18"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
       <c r="Z66" s="12"/>
       <c r="AA66" s="12"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="35">
-        <v>58</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="34">
-        <v>2005422</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F67" s="34">
-        <v>0</v>
-      </c>
-      <c r="G67" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34">
-        <f>SUM(E67:J67)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L67" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M67" s="34">
-        <f xml:space="preserve"> K67 / 24 * L67</f>
-        <v>7500000</v>
-      </c>
-      <c r="N67" s="34">
-        <f>SUM(E67:F67)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O67" s="34">
-        <f>N67 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P67" s="34">
-        <f>N67 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q67" s="34">
-        <f>N67 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R67" s="34">
-        <f>N67 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S67" s="34">
-        <f>SUM(O67:R67)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T67" s="34">
-        <f>N67 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U67" s="34">
-        <f>N67 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V67" s="34">
-        <f>N67 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W67" s="34">
-        <f>SUM(T67:V67)</f>
-        <v>735000</v>
-      </c>
-      <c r="X67" s="34"/>
-      <c r="Y67" s="34">
-        <f>M67-W67-X67</f>
-        <v>6765000</v>
-      </c>
+      <c r="A67" s="18"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
       <c r="AA67" s="12"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="35">
-        <v>59</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="34">
-        <v>2005600</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F68" s="34">
-        <v>0</v>
-      </c>
-      <c r="G68" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34">
-        <f>SUM(E68:J68)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L68" s="34">
-        <v>25</v>
-      </c>
-      <c r="M68" s="34">
-        <f xml:space="preserve"> K68 / 24 * L68</f>
-        <v>8333333.333333333</v>
-      </c>
-      <c r="N68" s="34">
-        <f>SUM(E68:F68)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O68" s="34">
-        <f>N68 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P68" s="34">
-        <f>N68 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q68" s="34">
-        <f>N68 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R68" s="34">
-        <f>N68 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S68" s="34">
-        <f>SUM(O68:R68)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T68" s="34">
-        <f>N68 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U68" s="34">
-        <f>N68 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V68" s="34">
-        <f>N68 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W68" s="34">
-        <f>SUM(T68:V68)</f>
-        <v>735000</v>
-      </c>
-      <c r="X68" s="34"/>
-      <c r="Y68" s="34">
-        <f>M68-W68-X68</f>
-        <v>7598333.333333333</v>
-      </c>
+      <c r="A68" s="18"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
       <c r="Z68" s="12"/>
       <c r="AA68" s="12"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="35">
-        <v>60</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="34">
-        <v>2005601</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F69" s="34">
-        <v>0</v>
-      </c>
-      <c r="G69" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34">
-        <f>SUM(E69:J69)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L69" s="34">
-        <v>24</v>
-      </c>
-      <c r="M69" s="34">
-        <f xml:space="preserve"> K69 / 24 * L69</f>
-        <v>8000000</v>
-      </c>
-      <c r="N69" s="34">
-        <f>SUM(E69:F69)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O69" s="34">
-        <f>N69 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P69" s="34">
-        <f>N69 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q69" s="34">
-        <f>N69 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R69" s="34">
-        <f>N69 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S69" s="34">
-        <f>SUM(O69:R69)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T69" s="34">
-        <f>N69 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U69" s="34">
-        <f>N69 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V69" s="34">
-        <f>N69 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W69" s="34">
-        <f>SUM(T69:V69)</f>
-        <v>735000</v>
-      </c>
-      <c r="X69" s="34"/>
-      <c r="Y69" s="34">
-        <f>M69-W69-X69</f>
-        <v>7265000</v>
-      </c>
+      <c r="A69" s="18"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
       <c r="Z69" s="12"/>
       <c r="AA69" s="12"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="35">
-        <v>61</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="34">
-        <v>2005602</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="E70" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F70" s="34">
-        <v>0</v>
-      </c>
-      <c r="G70" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34">
-        <f>SUM(E70:J70)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L70" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M70" s="34">
-        <f xml:space="preserve"> K70 / 24 * L70</f>
-        <v>7833333.333333333</v>
-      </c>
-      <c r="N70" s="34">
-        <f>SUM(E70:F70)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O70" s="34">
-        <f>N70 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P70" s="34">
-        <f>N70 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q70" s="34">
-        <f>N70 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R70" s="34">
-        <f>N70 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S70" s="34">
-        <f>SUM(O70:R70)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T70" s="34">
-        <f>N70 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U70" s="34">
-        <f>N70 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V70" s="34">
-        <f>N70 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W70" s="34">
-        <f>SUM(T70:V70)</f>
-        <v>735000</v>
-      </c>
-      <c r="X70" s="34"/>
-      <c r="Y70" s="34">
-        <f>M70-W70-X70</f>
-        <v>7098333.333333333</v>
-      </c>
+      <c r="A70" s="18"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
       <c r="Z70" s="12"/>
       <c r="AA70" s="12"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="35">
-        <v>62</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="34">
-        <v>2005769</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="34">
-        <v>7000000</v>
-      </c>
-      <c r="F71" s="34">
-        <v>0</v>
-      </c>
-      <c r="G71" s="34">
-        <v>500000</v>
-      </c>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34">
-        <v>500000</v>
-      </c>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34">
-        <f>SUM(E71:J71)</f>
-        <v>8000000</v>
-      </c>
-      <c r="L71" s="34">
-        <v>25</v>
-      </c>
-      <c r="M71" s="34">
-        <f xml:space="preserve"> K71 / 24 * L71</f>
-        <v>8333333.333333333</v>
-      </c>
-      <c r="N71" s="34">
-        <f>SUM(E71:F71)</f>
-        <v>7000000</v>
-      </c>
-      <c r="O71" s="34">
-        <f>N71 * 0.02</f>
-        <v>140000</v>
-      </c>
-      <c r="P71" s="34">
-        <f>N71 *0.175</f>
-        <v>1225000</v>
-      </c>
-      <c r="Q71" s="34">
-        <f>N71 *0.003</f>
-        <v>21000</v>
-      </c>
-      <c r="R71" s="34">
-        <f>N71 *0.001</f>
-        <v>7000</v>
-      </c>
-      <c r="S71" s="34">
-        <f>SUM(O71:R71)</f>
-        <v>1393000</v>
-      </c>
-      <c r="T71" s="34">
-        <f>N71 *0.08</f>
-        <v>560000</v>
-      </c>
-      <c r="U71" s="34">
-        <f>N71 *0.015</f>
-        <v>105000</v>
-      </c>
-      <c r="V71" s="34">
-        <f>N71 *0.01</f>
-        <v>70000</v>
-      </c>
-      <c r="W71" s="34">
-        <f>SUM(T71:V71)</f>
-        <v>735000</v>
-      </c>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34">
-        <f>M71-W71-X71</f>
-        <v>7598333.333333333</v>
-      </c>
+      <c r="A71" s="18"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
       <c r="Z71" s="12"/>
       <c r="AA71" s="12"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="39">
-        <f>SUM(Y9:Y71)</f>
-        <v>432194999.99999988</v>
-      </c>
+      <c r="A72" s="18"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
       <c r="AA72" s="12"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -6683,7 +3589,7 @@
       <c r="AA73" s="12"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
+      <c r="A74" s="18"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -6704,9 +3610,7 @@
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
-      <c r="V74" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="V74" s="12"/>
       <c r="W74" s="12"/>
       <c r="X74" s="12"/>
       <c r="Y74" s="12"/>
@@ -6714,7 +3618,7 @@
       <c r="AA74" s="12"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -6735,9 +3639,7 @@
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
-      <c r="V75" s="40" t="s">
-        <v>31</v>
-      </c>
+      <c r="V75" s="12"/>
       <c r="W75" s="12"/>
       <c r="X75" s="12"/>
       <c r="Y75" s="12"/>
@@ -6745,7 +3647,7 @@
       <c r="AA75" s="12"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="18"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -6774,7 +3676,7 @@
       <c r="AA76" s="12"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+      <c r="A77" s="18"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -6803,7 +3705,7 @@
       <c r="AA77" s="12"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -6832,7 +3734,7 @@
       <c r="AA78" s="12"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -6861,7 +3763,7 @@
       <c r="AA79" s="12"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -6890,7 +3792,7 @@
       <c r="AA80" s="12"/>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -6919,7 +3821,7 @@
       <c r="AA81" s="12"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -6948,7 +3850,7 @@
       <c r="AA82" s="12"/>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -6977,7 +3879,7 @@
       <c r="AA83" s="12"/>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -7006,7 +3908,7 @@
       <c r="AA84" s="12"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
@@ -7035,7 +3937,7 @@
       <c r="AA85" s="12"/>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -7064,7 +3966,7 @@
       <c r="AA86" s="12"/>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -7093,7 +3995,7 @@
       <c r="AA87" s="12"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -7122,7 +4024,7 @@
       <c r="AA88" s="12"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -7151,7 +4053,7 @@
       <c r="AA89" s="12"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -7180,7 +4082,7 @@
       <c r="AA90" s="12"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -7209,7 +4111,7 @@
       <c r="AA91" s="12"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -7238,7 +4140,7 @@
       <c r="AA92" s="12"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -7267,7 +4169,7 @@
       <c r="AA93" s="12"/>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -7296,7 +4198,7 @@
       <c r="AA94" s="12"/>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -7325,7 +4227,7 @@
       <c r="AA95" s="12"/>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -7354,7 +4256,7 @@
       <c r="AA96" s="12"/>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -7383,7 +4285,7 @@
       <c r="AA97" s="12"/>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -7412,7 +4314,7 @@
       <c r="AA98" s="12"/>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -7441,7 +4343,7 @@
       <c r="AA99" s="12"/>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -7470,7 +4372,7 @@
       <c r="AA100" s="12"/>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
@@ -7499,7 +4401,7 @@
       <c r="AA101" s="12"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
@@ -7528,7 +4430,7 @@
       <c r="AA102" s="12"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
@@ -7557,7 +4459,7 @@
       <c r="AA103" s="12"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -7586,7 +4488,7 @@
       <c r="AA104" s="12"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -7615,7 +4517,7 @@
       <c r="AA105" s="12"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -7644,7 +4546,7 @@
       <c r="AA106" s="12"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -7673,7 +4575,7 @@
       <c r="AA107" s="12"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
@@ -7702,7 +4604,7 @@
       <c r="AA108" s="12"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
@@ -7731,7 +4633,7 @@
       <c r="AA109" s="12"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
@@ -7760,7 +4662,7 @@
       <c r="AA110" s="12"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -7789,7 +4691,7 @@
       <c r="AA111" s="12"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
@@ -7818,7 +4720,7 @@
       <c r="AA112" s="12"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
@@ -7847,7 +4749,7 @@
       <c r="AA113" s="12"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
@@ -7876,7 +4778,7 @@
       <c r="AA114" s="12"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
@@ -7905,7 +4807,7 @@
       <c r="AA115" s="12"/>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
       <c r="D116" s="12"/>
@@ -7934,7 +4836,7 @@
       <c r="AA116" s="12"/>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
       <c r="D117" s="12"/>
@@ -7963,7 +4865,7 @@
       <c r="AA117" s="12"/>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="12"/>
@@ -7992,7 +4894,7 @@
       <c r="AA118" s="12"/>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
       <c r="D119" s="12"/>
@@ -8021,7 +4923,7 @@
       <c r="AA119" s="12"/>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
       <c r="D120" s="12"/>
@@ -8050,7 +4952,7 @@
       <c r="AA120" s="12"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
       <c r="D121" s="12"/>
@@ -8079,7 +4981,7 @@
       <c r="AA121" s="12"/>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
@@ -8108,7 +5010,7 @@
       <c r="AA122" s="12"/>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
@@ -8137,7 +5039,7 @@
       <c r="AA123" s="12"/>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -8166,7 +5068,7 @@
       <c r="AA124" s="12"/>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
       <c r="D125" s="12"/>
@@ -8195,7 +5097,7 @@
       <c r="AA125" s="12"/>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
       <c r="D126" s="12"/>
@@ -8224,7 +5126,7 @@
       <c r="AA126" s="12"/>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
       <c r="D127" s="12"/>
@@ -8253,7 +5155,7 @@
       <c r="AA127" s="12"/>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
       <c r="D128" s="12"/>
@@ -10950,14 +7852,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{8F574306-E751-48D2-953F-593A81803148}" scale="70" showPageBreaks="1">
+    <customSheetView guid="{347C3001-F952-47AB-9BC1-2F06D4332428}" scale="70" showPageBreaks="1">
       <selection activeCell="L11" sqref="L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
-    <mergeCell ref="A72:X72"/>
+    <mergeCell ref="A22:X22"/>
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="N7:N8"/>
